--- a/clinicaDB.xlsx
+++ b/clinicaDB.xlsx
@@ -1,107 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows10\Desktop\mate3\mate3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>diego</t>
-  </si>
-  <si>
-    <t>lentz</t>
-  </si>
-  <si>
-    <t>osede</t>
-  </si>
-  <si>
-    <t>lumbalgia</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>tratamiento del dolor</t>
-  </si>
-  <si>
-    <t>diegooo</t>
-  </si>
-  <si>
-    <t>traumatolgia</t>
-  </si>
-  <si>
-    <t>36791436</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>APELLIDO</t>
-  </si>
-  <si>
-    <t>OB. SOCIAL</t>
-  </si>
-  <si>
-    <t>DIAGNOSTICO</t>
-  </si>
-  <si>
-    <t>URGENCIA</t>
-  </si>
-  <si>
-    <t>PROCEDIMIENTO</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,114 +416,642 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J10" sqref="A5:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col width="10.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="20.140625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J5" s="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>APELLIDO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>OB. SOCIAL</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DIAGNOSTICO</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>URGENCIA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PROCEDIMIENTO</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>DEPARTAMENTO</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>diego</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>dasd</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>diego</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ObraSocial1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DX1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Urgencia</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Procedimiento1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>email@example.com</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Departamento1</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/clinicaDB.xlsx
+++ b/clinicaDB.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,16 +45,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,63 +425,56 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="A5:N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="10.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>NOMBRE</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>APELLIDO</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>OB. SOCIAL</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSTICO</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>URGENCIA</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PROCEDIMIENTO</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MAIL</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>DEPARTAMENTO</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DNI</t>
         </is>
@@ -486,149 +483,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>diego</t>
+          <t>pedro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>pica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>osde</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>nosabe</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>baja</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>corte de nepe</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
+          <t>asdqweasd</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>36791437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pedro</t>
+          <t>agus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>gonzalez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>galeno</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>solidificacion</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>gym</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>jose</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>das</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="J5" s="1" t="n"/>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>36791438</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/clinicaDB.xlsx
+++ b/clinicaDB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,8 +516,10 @@
           <t>asdqweasd</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>traumatologia</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v>36791437</v>
@@ -531,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gonzalez</t>
+          <t>gon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,29 +543,303 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>solidificacion</t>
+          <t>s</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>s</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>gym</t>
+          <t>s</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>asdasdasd</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>agus@gmail.com</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>cirujia</t>
+        </is>
       </c>
       <c r="I3" t="n">
+        <v>45173875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>agu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>galeno</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sadd</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>cirujia</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>45173876</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pedr</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>osde</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nosabe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>corte de nepe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>traumatologia</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>36791437</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ped</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>osde</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>nosabe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>corte de nepe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>asdqwea</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>traumatologia</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>36791438</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>agu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>galeno</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>enfer</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>45173876</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>flavio</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>perez</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>osde</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>fractura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>yeso</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>asdqwe</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>jose</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ads</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>enfer</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
       </c>
     </row>
   </sheetData>
